--- a/lab05/data/skargi.xlsx
+++ b/lab05/data/skargi.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,17 +474,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>75174204650703657286</t>
+          <t>92066486874665636822</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>88080444314</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-2021 10:30:00</t>
+          <t>01-06-2021 08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,34 +494,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Egzaminator był niekompetentny i nieprzygotowany.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>01-06-2021</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>99475643531177882280</t>
+          <t>61406769690453366234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-04-2021 18:00:00</t>
+          <t>03-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,34 +531,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>System egzaminacyjny często się zawieszał.</t>
+          <t>Egzaminator był nieuprzejmy i niekompetentny.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01-04-2021</t>
+          <t>04-05-2021</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>59765224441222107982</t>
+          <t>23538319182470046043</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-04-2021 18:00:00</t>
+          <t>03-06-2021 10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>02-04-2021</t>
+          <t>03-06-2021</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>98819562402964713305</t>
+          <t>89010677180984029112</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-04-2021 18:00:00</t>
+          <t>03-06-2021 10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -610,29 +610,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01-04-2021</t>
+          <t>04-06-2021</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>95378697643450700652</t>
+          <t>08755370855839089966</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-04-2021 18:00:00</t>
+          <t>03-06-2021 12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,29 +647,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02-04-2021</t>
+          <t>03-06-2021</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92066486874665636822</t>
+          <t>21632454871787586004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-04-2021 18:00:00</t>
+          <t>04-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -684,29 +684,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Problemy z dostępem do systemu egzaminacyjnego.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02-04-2021</t>
+          <t>05-05-2021</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27469748577425996701</t>
+          <t>02135235402661747849</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>57050294042</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02-03-2021 12:00:00</t>
+          <t>04-06-2021 10:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -721,29 +721,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
+          <t>Pytania były niezgodne z obowiązującymi przepisami.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03-03-2021</t>
+          <t>05-06-2021</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>86947417234035669299</t>
+          <t>78531684147691611423</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16041843005</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-02-2021 14:00:00</t>
+          <t>04-06-2021 16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -753,34 +753,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Egzaminator był nieuprzejmy i nieprofesjonalny.</t>
+          <t>System egzaminacyjny działał niestabilnie.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05-02-2021</t>
+          <t>04-06-2021</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00930863367740994663</t>
+          <t>93065150045989811095</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-02-2021 18:00:00</t>
+          <t>04-06-2021 16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -790,34 +790,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05-02-2021</t>
+          <t>04-06-2021</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16699688933202049410</t>
+          <t>46542723767177086542</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>97030363487</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>04-03-2021 12:00:00</t>
+          <t>05-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,34 +827,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pytania były źle sformułowane i mylące.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04-03-2021</t>
+          <t>05-05-2021</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>70808434181772986209</t>
+          <t>11134907908995399333</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>97030363487</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06-04-2021 14:00:00</t>
+          <t>07-05-2021 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -864,34 +864,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Egzaminator był nieuprzejmy i niepomocny.</t>
+          <t>Pytania były niezgodne z aktualnymi przepisami.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06-04-2021</t>
+          <t>08-05-2021</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>61500718045071707646</t>
+          <t>99365546998264562723</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06-04-2021 16:00:00</t>
+          <t>10-05-2021 08:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -901,34 +901,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
+          <t>System egzaminacyjny często się zawieszał.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06-04-2021</t>
+          <t>10-05-2021</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>34302486416834263457</t>
+          <t>52835091497274757522</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>57050294042</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08-04-2021 14:00:00</t>
+          <t>10-06-2021 16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -938,34 +938,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pytania były niezgodne z obowiązującymi przepisami.</t>
+          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-04-2021</t>
+          <t>10-06-2021</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11264614795409169229</t>
+          <t>94947465234286569097</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16041843005</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09-02-2021 12:00:00</t>
+          <t>11-05-2021 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -975,34 +975,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
+          <t>Komputer wyłączył się w trakcie egzaminu.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10-02-2021</t>
+          <t>11-05-2021</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>97686649097315989146</t>
+          <t>62027328836773576259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23250462145</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12-03-2021 12:00:00</t>
+          <t>11-06-2021 12:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1012,34 +1012,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pytania były zbyt trudne i nieadekwatne do materiału.</t>
+          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13-03-2021</t>
+          <t>11-06-2021</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>46542723767177086542</t>
+          <t>11352658945813760573</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>13-05-2021 08:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1049,34 +1049,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>Pytania były niejasne i trudne do zrozumienia.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14-01-2021</t>
+          <t>13-05-2021</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55448969763204401353</t>
+          <t>96328241236607985068</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>13-05-2021 16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1091,29 +1091,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14-01-2021</t>
+          <t>13-05-2021</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17719702590570244356</t>
+          <t>36244743236868481077</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>14-06-2021 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1123,34 +1123,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13-01-2021</t>
+          <t>15-06-2021</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>46694187322389007351</t>
+          <t>08530932905317676532</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>14040288601</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>17-05-2021 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1160,34 +1160,34 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>Egzaminator był nieuprzejmy i niekompetentny.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13-01-2021</t>
+          <t>18-05-2021</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75174204650703657286</t>
+          <t>72556648933816111795</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>17-06-2021 12:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1202,29 +1202,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13-01-2021</t>
+          <t>17-06-2021</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08084764464916608216</t>
+          <t>80542413846688562166</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>18-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1244,24 +1244,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14-01-2021</t>
+          <t>18-05-2021</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09071658859689195616</t>
+          <t>52685299664037805489</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>16042143005</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13-01-2021 18:00:00</t>
+          <t>18-06-2021 16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1276,29 +1276,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
+          <t>System egzaminacyjny często się zawieszał.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13-01-2021</t>
+          <t>18-06-2021</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>39886367045431114388</t>
+          <t>28998810580582219074</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>46011538543</t>
+          <t>16042143005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14-04-2021 14:00:00</t>
+          <t>20-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1308,34 +1308,34 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
+          <t>Pytania były zbyt trudne i nieadekwatne do materiału.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15-04-2021</t>
+          <t>20-05-2021</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>73567411395585718976</t>
+          <t>22536049640333152890</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14033088603</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15-01-2021 08:00:00</t>
+          <t>20-05-2021 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1345,34 +1345,34 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pytania były nieaktualne i nieodpowiednie.</t>
+          <t>Egzaminator nie udzielił mi odpowiedzi na pytania.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15-01-2021</t>
+          <t>20-05-2021</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>54183886723830899309</t>
+          <t>14742989047697518591</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>97030363487</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15-01-2021 08:00:00</t>
+          <t>21-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1387,29 +1387,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
+          <t>Pytania były źle sformułowane i mylące.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16-01-2021</t>
+          <t>22-05-2021</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27550833671968468030</t>
+          <t>00044006438587495182</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>14040288601</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15-02-2021 10:30:00</t>
+          <t>21-06-2021 12:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1424,29 +1424,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Egzaminator był nieuprzejmy i niepomocny.</t>
+          <t>Egzaminator był niekompetentny i nieprofesjonalny.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16-02-2021</t>
+          <t>21-06-2021</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26898467304877735207</t>
+          <t>07931042164702899361</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>49010414777</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16-02-2021 08:00:00</t>
+          <t>24-06-2021 08:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1456,34 +1456,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
+          <t>Komputer nie zapisał moich odpowiedzi.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16-02-2021</t>
+          <t>25-06-2021</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05352745552143193947</t>
+          <t>05930468533943333386</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14033088603</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16-02-2021 18:00:00</t>
+          <t>27-05-2021 12:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1493,34 +1493,34 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16-02-2021</t>
+          <t>28-05-2021</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>47626415502608026611</t>
+          <t>55692584595913191322</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14033088603</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17-02-2021 18:00:00</t>
+          <t>27-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1535,29 +1535,29 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pytania były źle sformułowane i mylące.</t>
+          <t>Pytania były niezgodne z aktualnymi przepisami.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18-02-2021</t>
+          <t>27-05-2021</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>55448969763204401353</t>
+          <t>45352628740718883905</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18-03-2021 12:00:00</t>
+          <t>28-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1567,34 +1567,34 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Komputer zawiesił się podczas egzaminu.</t>
+          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19-03-2021</t>
+          <t>29-05-2021</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13646428144493591065</t>
+          <t>74615772218732194372</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18-03-2021 12:00:00</t>
+          <t>28-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1609,29 +1609,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
+          <t>29-05-2021</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12367211606428859044</t>
+          <t>38508458275315889104</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18-03-2021 12:00:00</t>
+          <t>30-04-2021 10:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1646,29 +1646,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Komputer zawiesił się podczas egzaminu.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
+          <t>30-04-2021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>67657079855261468305</t>
+          <t>58750188888027129974</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18-03-2021 12:00:00</t>
+          <t>30-04-2021 12:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>System egzaminacyjny nie zapisał moich odpowiedzi.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
+          <t>01-05-2021</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>46694187322389007351</t>
+          <t>91531034216744853932</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>49010414777</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18-03-2021 14:00:00</t>
+          <t>30-04-2021 12:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1715,1201 +1715,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pytania były niezgodne z obowiązującymi przepisami.</t>
+          <t>Komputer nie zapisał moich odpowiedzi.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>88591960728839168397</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>14033088603</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>19-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>20-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>81456952964202287568</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>14033088603</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>20-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>28459712000766396935</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>14033088603</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>19-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>23538319182470046043</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>14033088603</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Komputer nie reagował na moje polecenia.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>20-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>35906450637397716759</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>19021081589</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>21-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>związana z treścią pytań</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Pytania były niejasne i wieloznaczne.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>21-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>05352745552143193947</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>23250462145</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>21-01-2021 18:00:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>związana z egzaminatorem</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Egzaminator był arogancki i nieprzyjemny.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>21-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>76201838558412815385</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>19021081589</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>22-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>związana z egzaminatorem</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Egzaminator nie udzielił odpowiedzi na moje pytania.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>22-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>05882794523282518477</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>16012095392</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>22-03-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>związana z treścią pytań</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Pytania były niejasne i trudne do zrozumienia.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>22-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>12367211606428859044</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>19021081589</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>26-01-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>związana z egzaminatorem</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Egzaminator nie udzielił mi odpowiedzi na pytania.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>26-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>60899143734377170450</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>19021081589</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>26-03-2021 16:00:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>związana z treścią pytań</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Pytania były źle sformułowane i mylące.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>26-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>21731029496867911752</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>57050294042</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>26-04-2021 08:00:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>związana z treścią pytań</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Pytania były niejasne i trudne do zrozumienia.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>27-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>03759443096319392757</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>49010414777</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>27-01-2021 10:30:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>związana z treścią pytań</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>28-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>08078260752032957850</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>88080444314</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>27-04-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>28-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>88533101097116773771</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>88080444314</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>27-04-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Komputer nie reagował na moje polecenia.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>27-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>40279712800376751124</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>88080444314</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>27-04-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>28-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>48244881592972703910</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>88080444314</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>27-04-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny często się zawieszał.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>28-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>62075183986427790850</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>19021081589</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>27-04-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>związana z egzaminatorem</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Egzaminator był niekompetentny i nieprofesjonalny.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>27-04-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>21714397234173293651</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>30-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>50675690744496308113</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny działał niestabilnie.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>29-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>71163150462402534172</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>29-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>72359013395281831167</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>30-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>62027328836773576259</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>29-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>36393751451001760722</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>29-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>74203394460753512641</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>30-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>52835091497274757522</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>16041843005</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>29-01-2021 14:00:00</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Komputer nie reagował na moje polecenia.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>30-01-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>63978774129048488703</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>31-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>23538319182470046043</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>27469748577425996701</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny często się zawieszał.</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>39170641705133661609</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>62027328836773576259</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>80283054010720185838</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>System egzaminacyjny nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>13998153690323835815</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>97030363487</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>30-03-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>30-03-2021</t>
+          <t>01-05-2021</t>
         </is>
       </c>
     </row>
@@ -2947,7 +1763,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57050294042</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2959,7 +1775,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23250462145</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2971,7 +1787,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>88080444314</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2983,7 +1799,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16041843005</t>
+          <t>16042143005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2995,7 +1811,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16012095392</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3007,43 +1823,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14033088603</t>
+          <t>14040288601</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Julianna Pastuszko</t>
+          <t>Julianna Pastuszko-Łyś</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>46011538543</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blanka Kręcisz</t>
+          <t>Blanka Kręcisz-Sommerfeld</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19021081589</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Reiter</t>
+          <t>Nicole Reiter-Namysł</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>97030363487</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3055,7 +1871,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>49010414777</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/lab05/data/skargi.xlsx
+++ b/lab05/data/skargi.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,17 +474,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92066486874665636822</t>
+          <t>93571512553648779365</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-06-2021 08:00:00</t>
+          <t>02-04-2021 16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,34 +494,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Pytania były zbyt skomplikowane i niejasne.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01-06-2021</t>
+          <t>02-04-2021</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>61406769690453366234</t>
+          <t>54183886723830899309</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46011838544</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-05-2021 18:00:00</t>
+          <t>03-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,34 +531,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Egzaminator był nieuprzejmy i niekompetentny.</t>
+          <t>Pytania były zbyt szczegółowe i nieadekwatne.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>04-05-2021</t>
+          <t>03-05-2021</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23538319182470046043</t>
+          <t>00292892923774601494</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-06-2021 10:30:00</t>
+          <t>04-05-2021 08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Komputer nie reagował na moje polecenia.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03-06-2021</t>
+          <t>05-05-2021</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>89010677180984029112</t>
+          <t>97897774224900644733</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-06-2021 10:30:00</t>
+          <t>05-04-2021 10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -610,29 +610,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Komputer nie reagował na moje polecenia.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04-06-2021</t>
+          <t>05-04-2021</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08755370855839089966</t>
+          <t>26898467304877735207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03-06-2021 12:00:00</t>
+          <t>05-05-2021 16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,29 +647,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
+          <t>Komputer nie zapisał moich odpowiedzi.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03-06-2021</t>
+          <t>05-05-2021</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21632454871787586004</t>
+          <t>56942959368732734108</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04-05-2021 10:30:00</t>
+          <t>07-04-2021 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,34 +679,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Pytania były niezgodne z aktualnymi przepisami.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05-05-2021</t>
+          <t>08-04-2021</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02135235402661747849</t>
+          <t>61406769690453366234</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04-06-2021 10:30:00</t>
+          <t>07-04-2021 18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -716,34 +716,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pytania były niezgodne z obowiązującymi przepisami.</t>
+          <t>Egzaminator nie udzielił odpowiedzi na moje pytania.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05-06-2021</t>
+          <t>08-04-2021</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>78531684147691611423</t>
+          <t>47626415502608026611</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-06-2021 16:00:00</t>
+          <t>08-04-2021 08:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -753,34 +753,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał niestabilnie.</t>
+          <t>Pytania były zbyt trudne i nieadekwatne do materiału.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04-06-2021</t>
+          <t>09-04-2021</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>93065150045989811095</t>
+          <t>02017463977797392827</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04-06-2021 16:00:00</t>
+          <t>08-04-2021 16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -790,34 +790,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Pytania były źle sformułowane i mylące.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04-06-2021</t>
+          <t>09-04-2021</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>46542723767177086542</t>
+          <t>23460285341764636354</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>46011838544</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05-05-2021 18:00:00</t>
+          <t>10-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,34 +827,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Egzaminator nie przestrzegał zasad egzaminu.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05-05-2021</t>
+          <t>11-05-2021</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11134907908995399333</t>
+          <t>21088057193137490069</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>97030663488</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-05-2021 14:00:00</t>
+          <t>10-05-2021 12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -864,34 +864,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pytania były niezgodne z aktualnymi przepisami.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-05-2021</t>
+          <t>11-05-2021</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>99365546998264562723</t>
+          <t>38430152479167680709</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>97030663488</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10-05-2021 08:00:00</t>
+          <t>11-05-2021 12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -901,34 +901,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>System egzaminacyjny często się zawieszał.</t>
+          <t>Pytania były źle sformułowane i mylące.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-05-2021</t>
+          <t>11-05-2021</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>52835091497274757522</t>
+          <t>47432596363644007018</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49010714778</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-06-2021 16:00:00</t>
+          <t>11-05-2021 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -938,29 +938,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-06-2021</t>
+          <t>12-05-2021</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>94947465234286569097</t>
+          <t>54756715764734462547</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Komputer wyłączył się w trakcie egzaminu.</t>
+          <t>System egzaminacyjny działał bardzo wolno.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -992,17 +992,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>62027328836773576259</t>
+          <t>74615772218732194372</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19021381580</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11-06-2021 12:00:00</t>
+          <t>12-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1012,34 +1012,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Egzaminator był niecierpliwy i niegrzeczny.</t>
+          <t>System egzaminacyjny działał niestabilnie.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11-06-2021</t>
+          <t>13-05-2021</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11352658945813760573</t>
+          <t>75174204650703657286</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>14040288601</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13-05-2021 08:00:00</t>
+          <t>14-05-2021 10:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1049,34 +1049,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pytania były niejasne i trudne do zrozumienia.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>96328241236607985068</t>
+          <t>71425811952612939558</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19021381580</t>
+          <t>16042143005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13-05-2021 16:00:00</t>
+          <t>14-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1086,34 +1086,34 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Pytania były zbyt trudne i nieadekwatne do materiału.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13-05-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>36244743236868481077</t>
+          <t>40653320003382422766</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>57050594043</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14-06-2021 14:00:00</t>
+          <t>15-04-2021 10:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1123,34 +1123,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15-06-2021</t>
+          <t>15-04-2021</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08530932905317676532</t>
+          <t>23085566087226759300</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14040288601</t>
+          <t>19021381580</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17-05-2021 14:00:00</t>
+          <t>15-04-2021 12:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1160,34 +1160,34 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Egzaminator był nieuprzejmy i niekompetentny.</t>
+          <t>Pytania były nieaktualne i nieodpowiednie.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18-05-2021</t>
+          <t>15-04-2021</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72556648933816111795</t>
+          <t>03759443096319392757</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17-06-2021 12:00:00</t>
+          <t>15-04-2021 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1202,29 +1202,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Komputer nie reagował na moje polecenia.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17-06-2021</t>
+          <t>15-04-2021</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80542413846688562166</t>
+          <t>32848785835957131546</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19021381580</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18-05-2021 10:30:00</t>
+          <t>18-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1251,17 +1251,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>52685299664037805489</t>
+          <t>08078260752032957850</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16042143005</t>
+          <t>97030663488</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18-06-2021 16:00:00</t>
+          <t>19-05-2021 08:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1276,29 +1276,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>System egzaminacyjny często się zawieszał.</t>
+          <t>System egzaminacyjny działał niestabilnie.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18-06-2021</t>
+          <t>19-05-2021</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>28998810580582219074</t>
+          <t>23085566087226759300</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16042143005</t>
+          <t>88080744315</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20-05-2021 10:30:00</t>
+          <t>20-04-2021 12:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1308,34 +1308,34 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pytania były zbyt trudne i nieadekwatne do materiału.</t>
+          <t>Komputer nie reagował na moje polecenia.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20-05-2021</t>
+          <t>20-04-2021</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22536049640333152890</t>
+          <t>51202998159025637542</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>88080744315</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20-05-2021 14:00:00</t>
+          <t>21-04-2021 10:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1350,29 +1350,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Egzaminator nie udzielił mi odpowiedzi na pytania.</t>
+          <t>Egzaminator był niekompetentny i nieprzygotowany.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20-05-2021</t>
+          <t>22-04-2021</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14742989047697518591</t>
+          <t>34559398148291049320</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16012395393</t>
+          <t>49010714778</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21-05-2021 10:30:00</t>
+          <t>21-04-2021 18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1382,34 +1382,34 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pytania były źle sformułowane i mylące.</t>
+          <t>Egzaminator nie udzielił mi odpowiedzi na pytania.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22-05-2021</t>
+          <t>21-04-2021</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00044006438587495182</t>
+          <t>00701516168464128351</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14040288601</t>
+          <t>16012395393</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21-06-2021 12:00:00</t>
+          <t>21-05-2021 16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1419,24 +1419,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Egzaminator był niekompetentny i nieprofesjonalny.</t>
+          <t>Pytania były nieadekwatne do rzeczywistości drogowej.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21-06-2021</t>
+          <t>21-05-2021</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>07931042164702899361</t>
+          <t>67657079855261468305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24-06-2021 08:00:00</t>
+          <t>22-04-2021 10:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1456,34 +1456,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
+          <t>związana z egzaminatorem</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
+          <t>Egzaminator był nieuprzejmy i niekompetentny.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25-06-2021</t>
+          <t>22-04-2021</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05930468533943333386</t>
+          <t>80542413846688562166</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19021381580</t>
+          <t>57050594043</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27-05-2021 12:00:00</t>
+          <t>23-04-2021 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1498,29 +1498,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+          <t>Komputer nie zapisał moich odpowiedzi.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28-05-2021</t>
+          <t>23-04-2021</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>55692584595913191322</t>
+          <t>94295373681442745039</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>46011838544</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27-05-2021 18:00:00</t>
+          <t>25-05-2021 18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1530,34 +1530,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>związana z treścią pytań</t>
+          <t>związana z technicznym przebiegiem egzaminu</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pytania były niezgodne z aktualnymi przepisami.</t>
+          <t>Komputer wyłączył się w trakcie egzaminu.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27-05-2021</t>
+          <t>25-05-2021</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>45352628740718883905</t>
+          <t>25828786482142865941</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>88080744315</t>
+          <t>23250762146</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28-05-2021 10:30:00</t>
+          <t>26-04-2021 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1567,24 +1567,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>związana z egzaminatorem</t>
+          <t>związana z treścią pytań</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Egzaminator był nieprzyjemny i niegrzeczny.</t>
+          <t>Pytania były zbyt skomplikowane i niejasne.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29-05-2021</t>
+          <t>26-04-2021</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>74615772218732194372</t>
+          <t>98113540972807132120</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28-05-2021 18:00:00</t>
+          <t>27-04-2021 08:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1609,29 +1609,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>System egzaminacyjny często się zawieszał.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29-05-2021</t>
+          <t>27-04-2021</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38508458275315889104</t>
+          <t>09042480408602873924</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19021381580</t>
+          <t>46011838544</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30-04-2021 10:30:00</t>
+          <t>27-04-2021 12:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1646,29 +1646,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Komputer zawiesił się podczas egzaminu.</t>
+          <t>Problemy z dostępem do systemu egzaminacyjnego.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30-04-2021</t>
+          <t>27-04-2021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>58750188888027129974</t>
+          <t>21632454871787586004</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>97030663488</t>
+          <t>14040288601</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30-04-2021 12:00:00</t>
+          <t>27-04-2021 16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1683,49 +1683,308 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>System egzaminacyjny działał bardzo wolno.</t>
+          <t>Problemy z wyświetlaniem pytań na ekranie.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>01-05-2021</t>
+          <t>28-04-2021</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>91531034216744853932</t>
+          <t>40279712800376751124</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>14040288601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>27-04-2021 16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>27-04-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08078260752032957850</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>88080744315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>27-05-2021 14:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Komputer nie zapisał moich odpowiedzi.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>27-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13998153690323835815</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>97030663488</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>30-04-2021 12:00:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>teoretyczny</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>związana z technicznym przebiegiem egzaminu</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Komputer nie zapisał moich odpowiedzi.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>01-05-2021</t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>27-05-2021 14:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>28-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>61348467180401919024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>88080744315</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>28-04-2021 10:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Problemy z logowaniem do systemu egzaminacyjnego.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>28-04-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>13998153690323835815</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>88080744315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28-04-2021 10:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Komputer nie reagował na moje polecenia.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>28-04-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>45637947131006303357</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16042143005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>29-04-2021 12:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>związana z treścią pytań</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pytania były nieadekwatne do rzeczywistości drogowej.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>29-04-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04394483695248693121</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>88080744315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>30-04-2021 14:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Problemy z dostępem do systemu egzaminacyjnego.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>30-04-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>77751883953450477543</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>49010714778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31-03-2021 10:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>teoretyczny</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>związana z technicznym przebiegiem egzaminu</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Komputer nie reagował na moje polecenia.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>31-03-2021</t>
         </is>
       </c>
     </row>
@@ -1768,7 +2027,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julita Gryka</t>
+          <t>Julita Gryka-Namysł</t>
         </is>
       </c>
     </row>
@@ -1840,7 +2099,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blanka Kręcisz-Sommerfeld</t>
+          <t>Blanka Kręcisz</t>
         </is>
       </c>
     </row>
@@ -1852,7 +2111,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Reiter-Namysł</t>
+          <t>Nicole Reiter</t>
         </is>
       </c>
     </row>
@@ -1864,7 +2123,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julianna Romaniak</t>
+          <t>Julianna Romaniak-Sommerfeld</t>
         </is>
       </c>
     </row>
